--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3835.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.355008839747422</v>
+        <v>4.0089430809021</v>
       </c>
       <c r="B1">
-        <v>2.257858244375438</v>
+        <v>4.266225814819336</v>
       </c>
       <c r="C1">
-        <v>4.879895438944839</v>
+        <v>8.006000518798828</v>
       </c>
       <c r="D1">
-        <v>3.28915036576969</v>
+        <v>8.246187210083008</v>
       </c>
       <c r="E1">
-        <v>1.004261770961376</v>
+        <v>5.573213577270508</v>
       </c>
     </row>
   </sheetData>
